--- a/VersionRecords/Version 5.1.1/定时器/新增定时器 (磐石组) .xlsx
+++ b/VersionRecords/Version 5.1.1/定时器/新增定时器 (磐石组) .xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>定时器大类</t>
   </si>
@@ -134,6 +134,34 @@
       </rPr>
       <t>:00:00执行</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskSpecialListTask"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskSpecialListTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控名单失效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改风控名单失效状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskSpecialListTask</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据错误日志，查询原因，进行修复</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -666,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="33.625" style="2" customWidth="1"/>
@@ -803,6 +831,60 @@
         <v>42692</v>
       </c>
     </row>
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="23">
+        <v>42692</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:XFD2"/>
   <phoneticPr fontId="4" type="noConversion"/>
